--- a/biology/Botanique/Maprounea_guianensis/Maprounea_guianensis.xlsx
+++ b/biology/Botanique/Maprounea_guianensis/Maprounea_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maprounea guianensis est une espèce de plantes à fleurs de la famille des Euphorbiaceae (famille du ricin). C'est un arbuste néotropical.
-Il est connu en Guyane sous les noms de Radié chancre (créole), Ka'akɨ, Yalakasilo, Yalakasila (Wayãpi), Idurasβeiti (Palikur), Aye wiwii (Aluku), Vaquinha (portugais)[2].
+Il est connu en Guyane sous les noms de Radié chancre (créole), Ka'akɨ, Yalakasilo, Yalakasila (Wayãpi), Idurasβeiti (Palikur), Aye wiwii (Aluku), Vaquinha (portugais).
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maprounea guianensis est un arbre petit à moyen, à bois dur[2], haut de 3 à 10 mètres. Ses feuilles sont elliptiques à ovales avec un apex aigu à acuminé, portant 0, 1 ou 2 paires de glandes à la base de la face abaxiale. On compte (1) 2 ou 3 fleurs pistillées par inflorescence. Les inflorescences staminée ont un contour oblong-elliptique, plus long que large. Les fruits sont des capsules longues de 4–6(–8) millimètres[3].
-Notons que Maprounea guianensis change de phénotype sous l'effet du stress hydrique[4]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maprounea guianensis est un arbre petit à moyen, à bois dur, haut de 3 à 10 mètres. Ses feuilles sont elliptiques à ovales avec un apex aigu à acuminé, portant 0, 1 ou 2 paires de glandes à la base de la face abaxiale. On compte (1) 2 ou 3 fleurs pistillées par inflorescence. Les inflorescences staminée ont un contour oblong-elliptique, plus long que large. Les fruits sont des capsules longues de 4–6(–8) millimètres.
+Notons que Maprounea guianensis change de phénotype sous l'effet du stress hydrique
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Maprounea guianensis du Panama au Brésil en passant par la Colombie, le Venezuela, Trinidad, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou et la Bolivie. Il croît dans les forêts sempervirentes de plaine ou de basse montagne, souvent dans les habitats ripicoles ou perturbés, depuis le niveau de la mer jusqu'à 900 m d'altitude[3]. Il est commun en Guyane sur la côte dans les lisières de savane et les forêts secondaires, et plus rare dans l'intérieur[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Maprounea guianensis du Panama au Brésil en passant par la Colombie, le Venezuela, Trinidad, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou et la Bolivie. Il croît dans les forêts sempervirentes de plaine ou de basse montagne, souvent dans les habitats ripicoles ou perturbés, depuis le niveau de la mer jusqu'à 900 m d'altitude. Il est commun en Guyane sur la côte dans les lisières de savane et les forêts secondaires, et plus rare dans l'intérieur.
 </t>
         </is>
       </c>
@@ -575,11 +591,13 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Guyane, Maprounea guianensis sert à préparer un remède Créole pour soigner les chancres vénériens et les boutons sur les jambes. Les Wayãpi en tirent un antidiarrhéique. Il favorise la cicatrisation l'ombilic des nouveau-nés chez les Palikur[2]. Il sert aussi à soigner les coupures et pour la toilette intime des femmes Aluku[5]. On l'utilise pour soigner les plaies et apaiser les démangeaisons chez les Amérindiens du nord-ouest du Guyana[6].
-On a découvert à Maprounea guianensis des vertus antiparasitaires nématicides sur Haemonchus contortus[7]
-Maprounea guianensis a fait l'objet de plusieurs études biochimiques[8],[9],[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Guyane, Maprounea guianensis sert à préparer un remède Créole pour soigner les chancres vénériens et les boutons sur les jambes. Les Wayãpi en tirent un antidiarrhéique. Il favorise la cicatrisation l'ombilic des nouveau-nés chez les Palikur. Il sert aussi à soigner les coupures et pour la toilette intime des femmes Aluku. On l'utilise pour soigner les plaies et apaiser les démangeaisons chez les Amérindiens du nord-ouest du Guyana.
+On a découvert à Maprounea guianensis des vertus antiparasitaires nématicides sur Haemonchus contortus
+Maprounea guianensis a fait l'objet de plusieurs études biochimiques.
 </t>
         </is>
       </c>
@@ -608,9 +626,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante[11] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante : 
 « MAPROUNEA Guianenſis. (Tabula 342.) 
 Frutex octo-pedalis, ramoſus ; ramis &amp; ramulis alternis, flexuoſis. Folia alterna, ovata, acuta, glabra, integerrima, petiolata, decidua, ſupernè viridia, infernè pallide virentia. Flores terminales, in capitulum ſubrotundum congeſti ; inferiores primo expanduntur, deinde casteri ſenſim accreſcunt 5 pedunculus communis elongatur, &amp; in angulos incurvatur, ità ut appareat ſingulum angulum florem unum ſuſtinuiſſe. Quandoque ex angulo prodit pedicellus, capitulum minus floriferum proferens. 
 Florebat Decembri. 
